--- a/Enchantments/Items/Very Rare.xlsx
+++ b/Enchantments/Items/Very Rare.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D694B3-40E3-4453-A2C6-AE0F1935C3E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Defender" sheetId="2" r:id="rId1"/>
+    <sheet name="Dwarven Thrower" sheetId="3" r:id="rId2"/>
+    <sheet name="Nine Lives Stealer" sheetId="1" r:id="rId3"/>
+    <sheet name="Staff of Fire" sheetId="7" r:id="rId4"/>
+    <sheet name="Staff of Frost" sheetId="8" r:id="rId5"/>
+    <sheet name="Staff of Thunder and Lightning" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,12 +24,2433 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="111">
+  <si>
+    <r>
+      <t xml:space="preserve"> · Medium ruby (3d6 fire </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3d10 fire)</t>
+    </r>
+  </si>
+  <si>
+    <t>No concentration</t>
+  </si>
+  <si>
+    <r>
+      <t>Require no action (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-6 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 action </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> no action</t>
+    </r>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <r>
+      <t>Require a critical hit (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFBB2961"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+6 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Item never recharges (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+6 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Item has 1d8 + 1 charges (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+3 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Item has 9 charges (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-16 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>9TH-LEVEL POWER WORD KILL</t>
+  </si>
+  <si>
+    <r>
+      <t>Concentration (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-10 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cast the spell (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-27 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Enchantment dies upon losing all of its charges (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFBB2961"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+6 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Require a DC 15 saving throw (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFBB2961"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+10 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Very Rare</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cast </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>power word kill</t>
+    </r>
+  </si>
+  <si>
+    <t>BASE 26 MCI</t>
+  </si>
+  <si>
+    <t>+2 WEAPON</t>
+  </si>
+  <si>
+    <r>
+      <t>52 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFBB2961"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">40 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Magic weapon and shield must balance each other (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFBB2961"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+12 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Remove magic missile protection (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+1 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+5 AC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +3 AC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Decrease AC (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+4 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 long rest </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1 per round</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Decrease cooldown (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-7 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reaction </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> no action</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Require no action (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-2 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cast </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shield</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cast the spell (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-3 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> · Small sunstone (+4 MCI for divine smite)</t>
+  </si>
+  <si>
+    <t>1ST-LEVEL SHIELD</t>
+  </si>
+  <si>
+    <t>+3 weapon</t>
+  </si>
+  <si>
+    <t>-34 MCI</t>
+  </si>
+  <si>
+    <t>6TH-LEVEL MAGIC WEAPON</t>
+  </si>
+  <si>
+    <t>+3 WEAPON</t>
+  </si>
+  <si>
+    <t>BASE 34 MCI</t>
+  </si>
+  <si>
+    <t>BOOMERANG BLADE (2 STAMINA)</t>
+  </si>
+  <si>
+    <r>
+      <t>Decrease cooldown (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-6 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 per short rest </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">→ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no cooldown</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enchant </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>boomerang blade</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Enchant a flourish (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-12 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>18 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC89800"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>34</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) MCI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Reduce damage when not fighting a giant (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+5 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cast </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>thunderclap</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cast the spell (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 ft. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 60 ft.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1d6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2d6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Increase range (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-11 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 ft. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> melee attack</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Decrease range (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+1 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1d6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Add status condition (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-5 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cast the spell (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-9 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cast </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lightning bolt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">100 ft. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 120 ft.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Increase area (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-2 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Decrease damage (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+3 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Increase damage (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-3 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9d6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 10d6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Increase damage (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>CANTRIP THUNDERCLAP (FOR THUNDER)</t>
+  </si>
+  <si>
+    <t>CANTRIP THUNDERCLAP (FOR THUNDERCLAP)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thunderclap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can stun targets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thunderclap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can deafen targets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Add status condition (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-2 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>3RD-LEVEL LIGHTNING BOLT (FOR LIGHTNING STRIKE)</t>
+  </si>
+  <si>
+    <t>CANTRIP SHOCKING GRASP (FOR LIGHTNING)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cast </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shocking grasp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1d8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2d6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Increase damage (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-2 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>59 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFBB2961"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>37</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) MCI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tie to attack (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFBB2961"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+1 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>SPELL SLOT (FOR THUNDER AND LIGHTNING)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Activates </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lightning strike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>thunderclap</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Activate another enchantment
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-12 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>56 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFBB2961"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>53</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>49</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cast </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fire shield</t>
+    </r>
+  </si>
+  <si>
+    <t>3RD-LEVEL FIRE SHIELD (FOR WARM SHIELD)</t>
+  </si>
+  <si>
+    <r>
+      <t>Cast the spell (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-12 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Decrease radiance (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-2 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10 ft. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0 ft.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2d8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Decrease damage (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+6 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>SPELL SLOT (FOR CHARGES)</t>
+  </si>
+  <si>
+    <t>1ST-LEVEL BURNING HANDS</t>
+  </si>
+  <si>
+    <t>3RD-LEVEL FIREBALL</t>
+  </si>
+  <si>
+    <t>4TH-LEVEL WALL OF FIRE</t>
+  </si>
+  <si>
+    <r>
+      <t>Restrict the casting to 4 charges
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFBB2961"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+4 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Restrict the casting to 1 charge
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFBB2961"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+1 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cast </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wall of fire</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cast </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fireball</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cast </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>burning hands</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Item could be destroyed upon losing all of its charges (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFBB2961"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+6 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Item could be destroyed upon losing all of its charges (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFBB2961"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+4 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Item has 10 charges (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-18 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Item refills 1d6 + 4 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+2 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>56 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFBB2961"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>43</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>39</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cast </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cone of cold</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cast the spell (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-15 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cast the spell (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-18 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Restrict the casting to 5 charges
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFBB2961"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+6 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Restrict the casting to 4 charges
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFBB2961"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+5 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>4TH-LEVEL ICE STORM</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cast </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ice storm</t>
+    </r>
+  </si>
+  <si>
+    <t>1ST-LEVEL FOG CLOUD</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cast </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fog cloud</t>
+    </r>
+  </si>
+  <si>
+    <t>4TH-LEVEL CONE OF COLD</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cast </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wall of ice</t>
+    </r>
+  </si>
+  <si>
+    <t>6TH-LEVEL WALL OF ICE</t>
+  </si>
+  <si>
+    <r>
+      <t>77 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFBB2961"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>55</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>47</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>3RD-LEVEL FIRE SHIELD (FOR CHILL SHIELD)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFBB2961"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFBB2961"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFC89800"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC89800"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -37,7 +2464,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -45,18 +2472,173 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFBB2961"/>
+      <color rgb="FFC89800"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -330,13 +2912,836 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E49CA88-EE55-4747-A6CB-AB77E1704ABF}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B29E53-B398-407D-8B8D-84B2961FA77C}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="34.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="29"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="27"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="31"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="34.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="29"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="27"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="31"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFD6E8F-29F4-4741-835D-AD39833D78C1}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="34.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="32"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="34"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="24"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="27"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="33"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="27"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="33"/>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="27"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="33"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7E995F-BB8C-4185-8E46-0A40B7948ED2}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="34.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="32"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="34"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="24"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="27"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="33"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="27"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="33"/>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="27"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="33"/>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="27"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="33"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A18:B18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA46F6BD-1FB2-4603-ACD3-342100446E5A}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="34.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="29"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="27"/>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="27"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="27"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="27"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="27"/>
+    </row>
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Enchantments/Items/Very Rare.xlsx
+++ b/Enchantments/Items/Very Rare.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AD4D6C-0956-4DE1-B21F-B378121D7FEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E1883B-F8BF-4BAE-86A0-40611F3047F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3550,7 +3550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7E995F-BB8C-4185-8E46-0A40B7948ED2}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3718,8 +3718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA46F6BD-1FB2-4603-ACD3-342100446E5A}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
